--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE4DA4-576E-3540-A4B2-F864D6A200AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1722E9-097C-B043-80A4-7E632249EE01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -54,39 +54,18 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>&lt;what day?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what time?&gt;</t>
-  </si>
-  <si>
     <t>Reflection</t>
   </si>
   <si>
-    <t>&lt;as applicable, with whom?&gt;</t>
-  </si>
-  <si>
     <t>Your Overall Mood</t>
   </si>
   <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>&lt;what did you want to accomplish?&gt;</t>
-  </si>
-  <si>
     <t>Achievements</t>
   </si>
   <si>
-    <t>&lt;what did you actually accomplish?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;what insight(s) did you gain?&gt;</t>
-  </si>
-  <si>
-    <t>&lt;how did you feel during the activity?&gt;</t>
-  </si>
-  <si>
     <t>Zihua Weng</t>
   </si>
   <si>
@@ -105,9 +84,6 @@
     <t>5pm-8pm</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Reverse Engineering introduction. Set up enviroment and get formilar with IntelliJ.</t>
   </si>
   <si>
@@ -115,6 +91,43 @@
   </si>
   <si>
     <t>Gained a bigger view of reverse engineering. Understood more about IntelliJ configuration and debug.</t>
+  </si>
+  <si>
+    <t>Jan 16th</t>
+  </si>
+  <si>
+    <t>Learn how to read code from academic view and industry view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand different way to debug an exist project. </t>
+  </si>
+  <si>
+    <t>4pm-5pm</t>
+  </si>
+  <si>
+    <t>Junxian, Wenchia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andre, Kaj </t>
+  </si>
+  <si>
+    <t>Andre, Kaj, Ping</t>
+  </si>
+  <si>
+    <t>Build JEdit on Intellij.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build Jedit, and studey Ant, Maven, </t>
+  </si>
+  <si>
+    <t>Error happened when building Jedit using Ant as some dependencies are missing.</t>
+  </si>
+  <si>
+    <t>1. Error happened when building jpacman2 and solved it by redownloading .
+2. For debuging in a project, class names and method names will be useful.</t>
+  </si>
+  <si>
+    <t>Feeling difficult to understand why to use Ant Maven and their difference.</t>
   </si>
 </sst>
 </file>
@@ -279,11 +292,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -606,7 +619,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,24 +628,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -648,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -660,8 +673,8 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -673,8 +686,8 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>20</v>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -711,85 +724,85 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">

--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1722E9-097C-B043-80A4-7E632249EE01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7713F48-7439-1F45-BBD2-89D74E9BC4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -128,6 +128,42 @@
   </si>
   <si>
     <t>Feeling difficult to understand why to use Ant Maven and their difference.</t>
+  </si>
+  <si>
+    <t>Jan 19th</t>
+  </si>
+  <si>
+    <t>10pm-11.30pm</t>
+  </si>
+  <si>
+    <t>Find a open source project for our coursework as our first choice was disapproved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked out different Java open sourse project and learn to use IntellJ find the project size. At the end we chose Realm which is a mobile database that frequently used on Android </t>
+  </si>
+  <si>
+    <t>excited!</t>
+  </si>
+  <si>
+    <t>Many popular network framework used on Android do not have a lot code…Eleticsearch is perfect but too big for us...</t>
+  </si>
+  <si>
+    <t>Jan 20th</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Finish homework1</t>
+  </si>
+  <si>
+    <t>Learn to commit and pull request after change multiple documents and after the fork repository got changed.</t>
+  </si>
+  <si>
+    <t>Happy to get my homework done!</t>
+  </si>
+  <si>
+    <t>Finished homework1 and wrote a report using markdown. Refreshed my knowledge of how to write markdown document. Also get more understand of the project Jpacman3, especially the project structure and how the game wrote!</t>
   </si>
 </sst>
 </file>
@@ -618,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,23 +841,51 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+    <row r="13" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>

--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7713F48-7439-1F45-BBD2-89D74E9BC4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C3694-A6E4-F64A-8871-AF4187455333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -164,6 +164,45 @@
   </si>
   <si>
     <t>Finished homework1 and wrote a report using markdown. Refreshed my knowledge of how to write markdown document. Also get more understand of the project Jpacman3, especially the project structure and how the game wrote!</t>
+  </si>
+  <si>
+    <t>Jan 23rd</t>
+  </si>
+  <si>
+    <t>Andre, Kaj</t>
+  </si>
+  <si>
+    <t>Learn to walk through code and create class view for project.</t>
+  </si>
+  <si>
+    <t>Created class uml for jpacman3 on Intellij and read code using the templates.</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Writing down some notes when I am readnig code will be helpful to keep track of each functions that I checkout and easy to go back to the source I started.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 28th </t>
+  </si>
+  <si>
+    <t>3pm-5pm</t>
+  </si>
+  <si>
+    <t>Kaj</t>
+  </si>
+  <si>
+    <t>Learn more about Git</t>
+  </si>
+  <si>
+    <t>Understand how git works and some solution for pratical senarios.</t>
+  </si>
+  <si>
+    <t>Always keep master clean!</t>
+  </si>
+  <si>
+    <t>Feel better to use git later!</t>
   </si>
 </sst>
 </file>
@@ -654,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -887,23 +926,51 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>

--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C3694-A6E4-F64A-8871-AF4187455333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EBFFE-DD8A-6144-B172-DFF547D5E99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -203,13 +203,76 @@
   </si>
   <si>
     <t>Feel better to use git later!</t>
+  </si>
+  <si>
+    <t>Jan 28th</t>
+  </si>
+  <si>
+    <t>8pm-10pm</t>
+  </si>
+  <si>
+    <t>Draw UML image for the whole realm project</t>
+  </si>
+  <si>
+    <t>Intellij could not draw the UML image as we did for jpacman3 and it seems like making a UML for a big project is not pratical as we could not see the detail and feel lost.</t>
+  </si>
+  <si>
+    <t>So so (need to checkout more tools)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 29th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We checked out different tools and drew the UML image using visual paradigm. But the project is too big that we could not fit it into one page or it will be so packed that aren't readable. </t>
+  </si>
+  <si>
+    <t>Select two features for the project.</t>
+  </si>
+  <si>
+    <t>We finally landed on two features: Initiating realm and writing tables. These two features seem very important and intuitive.</t>
+  </si>
+  <si>
+    <t>When picking features from the new project, I think it is better to find out how people use this project and take a look at those methods used frequently.</t>
+  </si>
+  <si>
+    <t>Glad to narrow down our research scope and  could finally start our reading part.</t>
+  </si>
+  <si>
+    <t>Read the code and analyze the first feature.</t>
+  </si>
+  <si>
+    <t>We read the source code and trace down to the essential part for initiating database in realm fowlling the templates and finished the documents, along with the UML images for all classes included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feel more accomplished as this is the first big Java project source code I read and it helps me gain more understanding about Java. Also I feel relif as I could work with my teammates who have many Java experience so I could always ask for help when reading the code. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 30th </t>
+  </si>
+  <si>
+    <t>1pm-2pm</t>
+  </si>
+  <si>
+    <t>Read the code and analyze the second feature.</t>
+  </si>
+  <si>
+    <t>As we found out the code is very complicated when reading the first feature, we decided to narrow the scope when read the second feature. For the second feature, we only focus on the creating table part of the writing database feature. Like the first one, we read the code, made notes and drew UML images.</t>
+  </si>
+  <si>
+    <t>While looking more deeper into the code, I came across more advanced java concepts and learned design patterns in the realm framework. The code contains many modules and we need to checkout a lot functions along the way. But most of the time, the variable names and comments are very intuitive so we can probably guess which functions to read and what thoese founctions are doing. It helps me to understand more about writing clean code in Java. Also, I felt the template was very tedious at first, but the experience turned out to be better as the notes help me keep track of where I start to look into the potential founctions. When I finished reading those founctions, I know where to look back and get back to where I started.</t>
+  </si>
+  <si>
+    <t>With the experience of reading the first feature, I could read the second feature code more faster and kind of easier to get the sense of what the methods are doing.  And after finishing the documents, I practise a little bit about github and using different branch to update my diary and my project results. It makes more sense to me that I should really use github to mamage all my study projects.</t>
+  </si>
+  <si>
+    <t>Happy to finish the first code reading homework!!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,30 +296,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -301,6 +340,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -339,39 +392,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -693,1265 +747,1322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" customWidth="1"/>
+    <col min="1" max="7" width="34.6640625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="340" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="8"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="8"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="8"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="8"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="8"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="8"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="8"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="8"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="8"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="8"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="8"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="8"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="8"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="8"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="8"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="8"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="8"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="8"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="8"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="8"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="8"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="8"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="8"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="8"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="8"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="8"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="8"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="8"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="8"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="8"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="8"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="8"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="8"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="8"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="8"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="8"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="8"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="8"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="8"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="4"/>
     </row>
     <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="8"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="8"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="8"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="8"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="8"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="8"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="8"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="8"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="8"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="8"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="8"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="8"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/2019winter/SWE265P/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/learning_material/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EBFFE-DD8A-6144-B172-DFF547D5E99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E0D06A-8678-C346-9AAA-6CA9BA0DFAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -266,6 +266,51 @@
   </si>
   <si>
     <t>Happy to finish the first code reading homework!!!!</t>
+  </si>
+  <si>
+    <t>Learn umls and different code graph</t>
+  </si>
+  <si>
+    <t>Drew different umls and code graph for my code.</t>
+  </si>
+  <si>
+    <t>Working in team is very important! When figuring out a problem, we should work as deep as we need. Try to brainstorm as more possibilities as we can before we head to the final solution. Recruiters are looking for candicates who could tear thing apart and solve problems. We need to make sure we have a clear communication and show how we get a relationship with others when we answer the questions.</t>
+  </si>
+  <si>
+    <t>Cool!</t>
+  </si>
+  <si>
+    <t>Feb 4th</t>
+  </si>
+  <si>
+    <t>8pm-9pm</t>
+  </si>
+  <si>
+    <t>Select two features from Realm for homework 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We decided to look at features: 1. Add methods to table query. 2. Change encryption algorithms </t>
+  </si>
+  <si>
+    <t>Feel like we have a lot work to do to understand the whole project which is well developed within years….</t>
+  </si>
+  <si>
+    <t>Feb 6th</t>
+  </si>
+  <si>
+    <t>Finish homework2. Read the code of the above two features and understand how new developer could modify the code.</t>
+  </si>
+  <si>
+    <t>10am-1:30pm</t>
+  </si>
+  <si>
+    <t>It is frustrated that the entryption part of the code is too hard to find and we went to dead end when we chased the code.</t>
+  </si>
+  <si>
+    <t>We finished the first feature1 easily as we know some of the concepts during homework1. But the feature2 is way more difficult as we had difficulty finding the encryption algorithms Realm uses. At the end of the day, everything is executed in C++ and we have hard time chasing the code in deep. Also, I only have littel knowledge of encryption algorithms, so I need to learn more about that later.</t>
+  </si>
+  <si>
+    <t>Finished homework2 and write the report . For the second feature we have trouble finding the encryption algorithm code.</t>
   </si>
 </sst>
 </file>
@@ -411,9 +456,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -426,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -745,94 +790,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="7" width="34.6640625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -841,7 +886,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1119,32 +1164,72 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+    <row r="21" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
@@ -1964,105 +2049,6 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/learning_material/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E0D06A-8678-C346-9AAA-6CA9BA0DFAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F86E5F-748A-DC43-8B0E-06DA447720EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -301,16 +301,16 @@
     <t>Finish homework2. Read the code of the above two features and understand how new developer could modify the code.</t>
   </si>
   <si>
-    <t>10am-1:30pm</t>
-  </si>
-  <si>
-    <t>It is frustrated that the entryption part of the code is too hard to find and we went to dead end when we chased the code.</t>
-  </si>
-  <si>
     <t>We finished the first feature1 easily as we know some of the concepts during homework1. But the feature2 is way more difficult as we had difficulty finding the encryption algorithms Realm uses. At the end of the day, everything is executed in C++ and we have hard time chasing the code in deep. Also, I only have littel knowledge of encryption algorithms, so I need to learn more about that later.</t>
   </si>
   <si>
-    <t>Finished homework2 and write the report . For the second feature we have trouble finding the encryption algorithm code.</t>
+    <t>10am-2pm</t>
+  </si>
+  <si>
+    <t>Finished homework2 and write the report . For the second feature we have trouble finding the encryption algorithm code. Finally, we found out that the default algorithm is AES-256 which is defined in other project called realm-core.</t>
+  </si>
+  <si>
+    <t>It is frustrated that the entryption part of the code is too hard to find and we went to dead end when we chased the code. And a lot project is writen in C++…</t>
   </si>
 </sst>
 </file>
@@ -793,7 +793,7 @@
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1213,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
@@ -1222,13 +1222,13 @@
         <v>88</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">

--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/2019winter/SWE265P/W2020/diaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/learning_material/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EBFFE-DD8A-6144-B172-DFF547D5E99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F86E5F-748A-DC43-8B0E-06DA447720EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -266,6 +266,51 @@
   </si>
   <si>
     <t>Happy to finish the first code reading homework!!!!</t>
+  </si>
+  <si>
+    <t>Learn umls and different code graph</t>
+  </si>
+  <si>
+    <t>Drew different umls and code graph for my code.</t>
+  </si>
+  <si>
+    <t>Working in team is very important! When figuring out a problem, we should work as deep as we need. Try to brainstorm as more possibilities as we can before we head to the final solution. Recruiters are looking for candicates who could tear thing apart and solve problems. We need to make sure we have a clear communication and show how we get a relationship with others when we answer the questions.</t>
+  </si>
+  <si>
+    <t>Cool!</t>
+  </si>
+  <si>
+    <t>Feb 4th</t>
+  </si>
+  <si>
+    <t>8pm-9pm</t>
+  </si>
+  <si>
+    <t>Select two features from Realm for homework 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We decided to look at features: 1. Add methods to table query. 2. Change encryption algorithms </t>
+  </si>
+  <si>
+    <t>Feel like we have a lot work to do to understand the whole project which is well developed within years….</t>
+  </si>
+  <si>
+    <t>Feb 6th</t>
+  </si>
+  <si>
+    <t>Finish homework2. Read the code of the above two features and understand how new developer could modify the code.</t>
+  </si>
+  <si>
+    <t>We finished the first feature1 easily as we know some of the concepts during homework1. But the feature2 is way more difficult as we had difficulty finding the encryption algorithms Realm uses. At the end of the day, everything is executed in C++ and we have hard time chasing the code in deep. Also, I only have littel knowledge of encryption algorithms, so I need to learn more about that later.</t>
+  </si>
+  <si>
+    <t>10am-2pm</t>
+  </si>
+  <si>
+    <t>Finished homework2 and write the report . For the second feature we have trouble finding the encryption algorithm code. Finally, we found out that the default algorithm is AES-256 which is defined in other project called realm-core.</t>
+  </si>
+  <si>
+    <t>It is frustrated that the entryption part of the code is too hard to find and we went to dead end when we chased the code. And a lot project is writen in C++…</t>
   </si>
 </sst>
 </file>
@@ -411,9 +456,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -426,6 +468,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -745,94 +790,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="7" width="34.6640625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -841,7 +886,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1119,32 +1164,72 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+    <row r="21" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
@@ -1964,105 +2049,6 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/learning_material/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F86E5F-748A-DC43-8B0E-06DA447720EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CF7024-969B-6E4C-9688-7D218966C555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -311,6 +311,33 @@
   </si>
   <si>
     <t>It is frustrated that the entryption part of the code is too hard to find and we went to dead end when we chased the code. And a lot project is writen in C++…</t>
+  </si>
+  <si>
+    <t>Feb 13th</t>
+  </si>
+  <si>
+    <t>Feb 20th</t>
+  </si>
+  <si>
+    <t>Get the architecture of the project from the code</t>
+  </si>
+  <si>
+    <t>Learn getting the architecture from the Jpacman3 project.</t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t>Finished the midterm and the big picture of th project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The </t>
+  </si>
+  <si>
+    <t>Freak out by the homework</t>
+  </si>
+  <si>
+    <t>Tired</t>
   </si>
 </sst>
 </file>
@@ -792,8 +819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1231,32 +1259,64 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>

--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/learning_material/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CF7024-969B-6E4C-9688-7D218966C555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFDDEB9-DE08-014F-9879-43AA404C8818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="14520" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="157">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -322,22 +322,187 @@
     <t>Get the architecture of the project from the code</t>
   </si>
   <si>
-    <t>Learn getting the architecture from the Jpacman3 project.</t>
-  </si>
-  <si>
     <t>Midterm</t>
   </si>
   <si>
     <t>Finished the midterm and the big picture of th project.</t>
   </si>
   <si>
-    <t xml:space="preserve">The </t>
-  </si>
-  <si>
     <t>Freak out by the homework</t>
   </si>
   <si>
     <t>Tired</t>
+  </si>
+  <si>
+    <t>Understand how to extract the architecture of the project from grouping components from code.</t>
+  </si>
+  <si>
+    <t>Feb 21th</t>
+  </si>
+  <si>
+    <t>11am-6pm</t>
+  </si>
+  <si>
+    <t>Read the code of realm-core and find 2 essential features. Finish and resubit homework 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many database follow the similar architecture. After learning the basic architecture, we have a mental model in our mind and we </t>
+  </si>
+  <si>
+    <t>To find the essential parts of the system, we could start from the architecture of the system.</t>
+  </si>
+  <si>
+    <t>Feb 22th</t>
+  </si>
+  <si>
+    <t>11am-10pm</t>
+  </si>
+  <si>
+    <t>Reading C++ is not that difficult to me now and for finding the features, we don't really need to know all about C++ and still get the structure out.</t>
+  </si>
+  <si>
+    <t>Feb 25th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn more about architecture of database and the design of different components. </t>
+  </si>
+  <si>
+    <t>Still confused</t>
+  </si>
+  <si>
+    <t>9am-12pm</t>
+  </si>
+  <si>
+    <t>Feb 26th</t>
+  </si>
+  <si>
+    <t>10am-4pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn more about architecture of database and the design of different components. And align it with Realm-design. Find documantation of Realm design. </t>
+  </si>
+  <si>
+    <t>9pm-12am</t>
+  </si>
+  <si>
+    <t>Extract architecture of realm-core and work on homework 4</t>
+  </si>
+  <si>
+    <t>Feb 27th</t>
+  </si>
+  <si>
+    <t>1pm-3pm</t>
+  </si>
+  <si>
+    <t>The homework help me study and understand the database structure and get me confidence in working with C++.</t>
+  </si>
+  <si>
+    <t>To intergrate every part into final homework 4</t>
+  </si>
+  <si>
+    <t>Study design pattern</t>
+  </si>
+  <si>
+    <t>Need to learn disgn pattern from more real examples.</t>
+  </si>
+  <si>
+    <t>Good. Excited to learn more.</t>
+  </si>
+  <si>
+    <t>Feb 28th</t>
+  </si>
+  <si>
+    <t>Feb 29th</t>
+  </si>
+  <si>
+    <t>Study other design patterns from more examples from https://github.com/iluwatar/java-design-patterns</t>
+  </si>
+  <si>
+    <t>Find design pattern example in realm-java</t>
+  </si>
+  <si>
+    <t>Learned getting the architecture from the Jpacman3 project.</t>
+  </si>
+  <si>
+    <t>Learned the basic architecture of a database and learned more about C++. Identified candidate features of realm database.</t>
+  </si>
+  <si>
+    <t>Learned the basic architecture of a database and learned more about C++. Identified two features of realm database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a bigger picture of how database is designed and understand how Realm database align with the design. </t>
+  </si>
+  <si>
+    <t>Understood more about Realm architecture by combining it with the basic database desgin.</t>
+  </si>
+  <si>
+    <t>Tested our assumtion of the architecture and found all the componenets. Modified the design result and the structure according to what we understand from realm-core.</t>
+  </si>
+  <si>
+    <t>fininshed homework 4</t>
+  </si>
+  <si>
+    <t>learned the first 7 design pattern from https://www.youtube.com/watch?v=v9ejT8FO-7I&amp;list=PLrhzvIcii6GNjpARdnO4ueTUAVR9eMBpc</t>
+  </si>
+  <si>
+    <t>Identified builder, factory, observer design pattern in realm-java</t>
+  </si>
+  <si>
+    <t>It was not difficult to find where the design pattern was, but finding the whole defind the application toke time. Finding design pattern actually help me learn more about the project.</t>
+  </si>
+  <si>
+    <t>Excited!</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Finally resubmit the homework 2 yehhhhh</t>
+  </si>
+  <si>
+    <t>Feeling still a lot work to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real example make more sense to learn design pattern as they are good practise solution for real problems and many project would follow the similar way to implement them. </t>
+  </si>
+  <si>
+    <t>Mar 3rd</t>
+  </si>
+  <si>
+    <t>Mar 4th</t>
+  </si>
+  <si>
+    <t>Mar 5th</t>
+  </si>
+  <si>
+    <t>10pm-12am</t>
+  </si>
+  <si>
+    <t>Study design pattern and work on homework 5</t>
+  </si>
+  <si>
+    <t>To intergrate every part into final homework 5</t>
+  </si>
+  <si>
+    <t>11am-15pm</t>
+  </si>
+  <si>
+    <t>fininshed homework 5</t>
+  </si>
+  <si>
+    <t>Happy to crack one more homework!</t>
+  </si>
+  <si>
+    <t>Cool, inefficient</t>
+  </si>
+  <si>
+    <t>Added one more design pattern to homework. Improve the report.</t>
+  </si>
+  <si>
+    <t>Keep learning</t>
+  </si>
+  <si>
+    <t>Realized I need to update my diary as well….</t>
   </si>
 </sst>
 </file>
@@ -450,9 +615,38 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -466,39 +660,62 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -819,1296 +1036,1449 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="34.6640625" style="20" customWidth="1"/>
+    <col min="2" max="7" width="34.6640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="340" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="187" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="204" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="187" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
+      <c r="B27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="4"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="4"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="4"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="4"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="4"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="4"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="4"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="4"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="4"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="4"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="4"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="4"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="4"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="4"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="4"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="4"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="4"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="4"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="4"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="4"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="4"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="4"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="4"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="4"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="4"/>
+      <c r="A98" s="19"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="4"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="4"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="4"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="4"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="13"/>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="4"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="4"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="4"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="4"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="4"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="4"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="4"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="4"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="4"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="4"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="4"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="4"/>
+      <c r="A114" s="19"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-ZihuaWeng.xlsx
+++ b/diaries/diary-ZihuaWeng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihuaweng/Documents/study/learning_material/2019winter/SWE265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9056B9C7-BD5A-C648-9A48-923AD7C36014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD5F776-518F-CF45-9764-AA046CC9803B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16200" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="214">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -661,17 +661,26 @@
     <t>Finished report for 3 existing test cases and 3 new test cases. Committed change to remote.</t>
   </si>
   <si>
-    <t>Modified reports for existing test cases and new test cases, finished second issue.</t>
-  </si>
-  <si>
-    <t>Awesome!!!!!!!!!</t>
+    <t xml:space="preserve">Finish homework6. </t>
+  </si>
+  <si>
+    <t>Submit new PR for second issue and add three more tests.</t>
+  </si>
+  <si>
+    <t>Awesome!!!!!!!!! Thank you Andre and Kaj!!!!</t>
+  </si>
+  <si>
+    <t>When working on the second issue, we read more code to understand the way to add new features as indicated in the issue. Submitting new PR was so excited! Contribute to the open source project is awesome and your work is shown by many people. It was a great experience and I added the whole project on my resume. :)</t>
+  </si>
+  <si>
+    <t>8am-9pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,9 +867,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -886,6 +892,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1206,38 +1215,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="25" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="34.6640625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="7" width="34.6640625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1246,7 +1255,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1268,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1281,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1285,1607 +1294,1609 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="7" spans="1:7" s="16" customFormat="1" ht="16">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="16">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:7" ht="51">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:7" ht="102">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:7" ht="51">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:7" ht="85">
+      <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:7" ht="119">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:7" ht="85">
+      <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:7" ht="34">
+      <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:7" ht="102">
+      <c r="A17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:7" ht="68">
+      <c r="A18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="340" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:7" ht="340">
+      <c r="A19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="187" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:7" ht="187">
+      <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="204" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:7" ht="204">
+      <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:7" ht="51">
+      <c r="A22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="187" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:7" ht="187">
+      <c r="A23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:7" ht="119">
+      <c r="A24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:7" ht="119">
+      <c r="A25" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:7" ht="119">
+      <c r="A26" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:7" ht="170">
+      <c r="A27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="323" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:7" ht="323">
+      <c r="A28" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:7" ht="102">
+      <c r="A29" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="187" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:7" ht="187">
+      <c r="A30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:7" ht="119">
+      <c r="A31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:7" ht="51">
+      <c r="A32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:7" ht="68">
+      <c r="A33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:7" ht="68">
+      <c r="A34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:7" ht="68">
+      <c r="A35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:7" ht="85">
+      <c r="A36" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:7" ht="85">
+      <c r="A37" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:7" ht="51">
+      <c r="A38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:7" ht="102">
+      <c r="A39" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:7" ht="85">
+      <c r="A40" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:7" ht="85">
+      <c r="A41" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:7" ht="85">
+      <c r="A42" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:7" ht="51">
+      <c r="A43" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:7" ht="34">
+      <c r="A44" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:7" ht="170">
+      <c r="A45" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:7" ht="119">
+      <c r="A46" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:7" ht="68">
+      <c r="A47" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:7" ht="102">
+      <c r="A48" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+    <row r="49" spans="1:7" ht="136">
+      <c r="A49" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:7" ht="153">
+      <c r="A50" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10" t="s">
+      <c r="E50" s="8" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="10"/>
-    </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="10"/>
-    </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10"/>
-    </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="10"/>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="10"/>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="10"/>
-    </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="10"/>
-    </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="10"/>
-    </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="10"/>
-    </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="10"/>
-    </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="10"/>
-    </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="10"/>
-    </row>
-    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
-    </row>
-    <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="10"/>
-    </row>
-    <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="10"/>
-    </row>
-    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="10"/>
-    </row>
-    <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="10"/>
-    </row>
-    <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="10"/>
-    </row>
-    <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="10"/>
-    </row>
-    <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="10"/>
-    </row>
-    <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="10"/>
-    </row>
-    <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="10"/>
-    </row>
-    <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="10"/>
-    </row>
-    <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="10"/>
-    </row>
-    <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="10"/>
-    </row>
-    <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="10"/>
-    </row>
-    <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="10"/>
-    </row>
-    <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="10"/>
-    </row>
-    <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="10"/>
-    </row>
-    <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="10"/>
-    </row>
-    <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="10"/>
-    </row>
-    <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="10"/>
+      <c r="F50" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="16">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="16">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="16">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="16">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="1:7" ht="16">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="16">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="16">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="16">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="16">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" ht="16">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" ht="16">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="16">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="16">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" ht="16">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" ht="16">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" ht="16">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="1:7" ht="16">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" ht="16">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" ht="16">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="16">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" ht="16">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" ht="16">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="16">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="16">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="16">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="16">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="16">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="16">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="16">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="16">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="16">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="16">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" ht="16">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="16">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="16">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="16">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="16">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="16">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="16">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="16">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="16">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="16">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="16">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="16">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="16">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="16">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="16">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="16">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" ht="16">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" ht="16">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7" ht="16">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" ht="16">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:7" ht="16">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" ht="16">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="1:7" ht="16">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" ht="16">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="16">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" ht="16">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" ht="16">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="16">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" ht="16">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" ht="16">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" ht="16">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" ht="16">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" ht="16">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="16">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7" ht="16">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" ht="16">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7" ht="16">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="1:7" ht="16">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="1:7" ht="16">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
